--- a/lib/scripts/categories_listing.xlsx
+++ b/lib/scripts/categories_listing.xlsx
@@ -56,7 +56,7 @@
     <t>commercial</t>
   </si>
   <si>
-    <t>store</t>
+    <t>public_store</t>
   </si>
   <si>
     <t>warehouse</t>
@@ -113,7 +113,7 @@
     <t>air</t>
   </si>
   <si>
-    <t>other</t>
+    <t>other_various</t>
   </si>
   <si>
     <t>Name GR</t>
